--- a/data/pca/factorExposure/factorExposure_2016-09-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.006499713702294391</v>
+        <v>0.01413923246467161</v>
       </c>
       <c r="C2">
-        <v>-0.05010588744226759</v>
+        <v>0.04272586167097536</v>
       </c>
       <c r="D2">
-        <v>0.02542310651199767</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06631098258835076</v>
+      </c>
+      <c r="E2">
+        <v>-0.05371544652768739</v>
+      </c>
+      <c r="F2">
+        <v>-0.08594744587006548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.05803265670060855</v>
+        <v>0.03329016926971166</v>
       </c>
       <c r="C3">
-        <v>-0.09916666837947954</v>
+        <v>0.08002761092415156</v>
       </c>
       <c r="D3">
-        <v>0.06214229263296495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09520968263791606</v>
+      </c>
+      <c r="E3">
+        <v>-0.06512233101593402</v>
+      </c>
+      <c r="F3">
+        <v>-0.01680134846486436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.06171705979555513</v>
+        <v>0.05725829803388405</v>
       </c>
       <c r="C4">
-        <v>-0.05607016708803197</v>
+        <v>0.06518080149445707</v>
       </c>
       <c r="D4">
-        <v>0.0235888428326021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06115130202222518</v>
+      </c>
+      <c r="E4">
+        <v>-0.04963683154659036</v>
+      </c>
+      <c r="F4">
+        <v>-0.08257075248497611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03047610677450371</v>
+        <v>0.03303700060814561</v>
       </c>
       <c r="C6">
-        <v>-0.04113698244098423</v>
+        <v>0.03659643478439047</v>
       </c>
       <c r="D6">
-        <v>0.02702093488146367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06951809173036248</v>
+      </c>
+      <c r="E6">
+        <v>-0.05938141866009022</v>
+      </c>
+      <c r="F6">
+        <v>-0.07135001901822448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01762148440402081</v>
+        <v>0.01959785548228926</v>
       </c>
       <c r="C7">
-        <v>-0.03993588153764627</v>
+        <v>0.03684427629726712</v>
       </c>
       <c r="D7">
-        <v>-0.006346783436705788</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03932342830972964</v>
+      </c>
+      <c r="E7">
+        <v>-0.03343238080261279</v>
+      </c>
+      <c r="F7">
+        <v>-0.1070060342877508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.001734970736378605</v>
+        <v>0.003985452803301515</v>
       </c>
       <c r="C8">
-        <v>-0.02199213479688835</v>
+        <v>0.0276961008147549</v>
       </c>
       <c r="D8">
-        <v>0.02711725144861149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03553360061868007</v>
+      </c>
+      <c r="E8">
+        <v>-0.04112386068096282</v>
+      </c>
+      <c r="F8">
+        <v>-0.05240252454909773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.03105453982948614</v>
+        <v>0.03644726960186888</v>
       </c>
       <c r="C9">
-        <v>-0.04138990883011566</v>
+        <v>0.05143422460242306</v>
       </c>
       <c r="D9">
-        <v>0.01358658095624016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04593504318638574</v>
+      </c>
+      <c r="E9">
+        <v>-0.04315903111042209</v>
+      </c>
+      <c r="F9">
+        <v>-0.08982377323998551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.06674262225143149</v>
+        <v>0.1009168178250341</v>
       </c>
       <c r="C10">
-        <v>0.1930950627390507</v>
+        <v>-0.19009940968319</v>
       </c>
       <c r="D10">
-        <v>0.00851415911756832</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.000553069303689919</v>
+      </c>
+      <c r="E10">
+        <v>-0.04519063421708315</v>
+      </c>
+      <c r="F10">
+        <v>-0.03718959200387763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.0391506866050135</v>
+        <v>0.03528221039180328</v>
       </c>
       <c r="C11">
-        <v>-0.05287654868603107</v>
+        <v>0.05199844968707974</v>
       </c>
       <c r="D11">
-        <v>0.001046600722447994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03390429955462324</v>
+      </c>
+      <c r="E11">
+        <v>-0.0056170897331099</v>
+      </c>
+      <c r="F11">
+        <v>-0.06432245981218133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.03548465572181046</v>
+        <v>0.03602333486859404</v>
       </c>
       <c r="C12">
-        <v>-0.0446736840426737</v>
+        <v>0.04779606689240844</v>
       </c>
       <c r="D12">
-        <v>-0.0002354492518442385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02598413035231571</v>
+      </c>
+      <c r="E12">
+        <v>-0.01540059144731774</v>
+      </c>
+      <c r="F12">
+        <v>-0.06612488733306221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01065102484039396</v>
+        <v>0.0119116501084397</v>
       </c>
       <c r="C13">
-        <v>-0.04219137978745979</v>
+        <v>0.04112619960017765</v>
       </c>
       <c r="D13">
-        <v>0.01403063268081694</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06585056522254079</v>
+      </c>
+      <c r="E13">
+        <v>-0.0644457998395883</v>
+      </c>
+      <c r="F13">
+        <v>-0.1138253489929849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.004618823030008577</v>
+        <v>0.00543915930465991</v>
       </c>
       <c r="C14">
-        <v>-0.03384894231846233</v>
+        <v>0.03033030183317261</v>
       </c>
       <c r="D14">
-        <v>-0.01858547595288669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03024038334430637</v>
+      </c>
+      <c r="E14">
+        <v>-0.02867193645770206</v>
+      </c>
+      <c r="F14">
+        <v>-0.09720494330670601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.00134021645365236</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.002726252891628252</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003459164193032825</v>
+      </c>
+      <c r="E15">
+        <v>1.529404441687097e-05</v>
+      </c>
+      <c r="F15">
+        <v>-0.002541022868662019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.03456064087548975</v>
+        <v>0.03278305740352341</v>
       </c>
       <c r="C16">
-        <v>-0.0414205661680491</v>
+        <v>0.04625292818863818</v>
       </c>
       <c r="D16">
-        <v>0.003783222586069483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0291037732128146</v>
+      </c>
+      <c r="E16">
+        <v>-0.02000996274996011</v>
+      </c>
+      <c r="F16">
+        <v>-0.06803313913109608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>0.02305315611108797</v>
+        <v>0.01625634295518124</v>
       </c>
       <c r="C19">
-        <v>-0.05937044493387592</v>
+        <v>0.05036905436420923</v>
       </c>
       <c r="D19">
-        <v>0.06725804885713912</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1012393487920577</v>
+      </c>
+      <c r="E19">
+        <v>-0.08129506940678349</v>
+      </c>
+      <c r="F19">
+        <v>-0.09214810655418508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01302565011900915</v>
+        <v>0.01338650210812836</v>
       </c>
       <c r="C20">
-        <v>-0.04442249737096269</v>
+        <v>0.04060454556926649</v>
       </c>
       <c r="D20">
-        <v>0.01497846420684393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04214913690322759</v>
+      </c>
+      <c r="E20">
+        <v>-0.05657898987021779</v>
+      </c>
+      <c r="F20">
+        <v>-0.08789145569602233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.00837233961808174</v>
+        <v>0.008274174350827977</v>
       </c>
       <c r="C21">
-        <v>-0.05054377819822595</v>
+        <v>0.04543454864998397</v>
       </c>
       <c r="D21">
-        <v>0.0324298834264414</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0726993688334297</v>
+      </c>
+      <c r="E21">
+        <v>-0.07461632743153694</v>
+      </c>
+      <c r="F21">
+        <v>-0.1333392962823653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0002549325044561128</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02342141737031885</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0340508494012775</v>
+      </c>
+      <c r="E22">
+        <v>-0.01631728630666266</v>
+      </c>
+      <c r="F22">
+        <v>-0.01544517760264558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0003223838219481063</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02355113610756797</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03374546030214849</v>
+      </c>
+      <c r="E23">
+        <v>-0.01660921357453967</v>
+      </c>
+      <c r="F23">
+        <v>-0.01531706308718078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02981859094876927</v>
+        <v>0.0319087121604003</v>
       </c>
       <c r="C24">
-        <v>-0.04640832730258471</v>
+        <v>0.05367991159203146</v>
       </c>
       <c r="D24">
-        <v>-0.0007546618890043923</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02749970685148674</v>
+      </c>
+      <c r="E24">
+        <v>-0.0175767087138488</v>
+      </c>
+      <c r="F24">
+        <v>-0.07611163393123667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.04623932450639746</v>
+        <v>0.04215938366286767</v>
       </c>
       <c r="C25">
-        <v>-0.05672675846458215</v>
+        <v>0.05876256966546162</v>
       </c>
       <c r="D25">
-        <v>-0.009733093141447199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0249039939976787</v>
+      </c>
+      <c r="E25">
+        <v>-0.01258133340261146</v>
+      </c>
+      <c r="F25">
+        <v>-0.07927750393594721</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.01146941742723813</v>
+        <v>0.01366161453795809</v>
       </c>
       <c r="C26">
-        <v>-0.0174611277253984</v>
+        <v>0.01614680718023662</v>
       </c>
       <c r="D26">
-        <v>0.001203168387837954</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02691016981086838</v>
+      </c>
+      <c r="E26">
+        <v>-0.02984220133957226</v>
+      </c>
+      <c r="F26">
+        <v>-0.07355507027171664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.07622701521787593</v>
+        <v>0.13581676544198</v>
       </c>
       <c r="C28">
-        <v>0.2198142350984852</v>
+        <v>-0.239315856900435</v>
       </c>
       <c r="D28">
-        <v>0.005969033235936914</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.015494949174098</v>
+      </c>
+      <c r="E28">
+        <v>-0.04916193802841</v>
+      </c>
+      <c r="F28">
+        <v>-0.05183298678076694</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.00867305635524809</v>
+        <v>0.006313816849996933</v>
       </c>
       <c r="C29">
-        <v>-0.02647979857619815</v>
+        <v>0.02613220039524298</v>
       </c>
       <c r="D29">
-        <v>-0.01701558318849272</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02411561634770642</v>
+      </c>
+      <c r="E29">
+        <v>-0.0306766299593414</v>
+      </c>
+      <c r="F29">
+        <v>-0.08932023931472102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.04774501351499347</v>
+        <v>0.04057395826301196</v>
       </c>
       <c r="C30">
-        <v>-0.05951011230765478</v>
+        <v>0.06504556730890444</v>
       </c>
       <c r="D30">
-        <v>0.04125061154746604</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1083883107399901</v>
+      </c>
+      <c r="E30">
+        <v>-0.04094838919929756</v>
+      </c>
+      <c r="F30">
+        <v>-0.1017471232829353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0456944767595002</v>
+        <v>0.05468589209695216</v>
       </c>
       <c r="C31">
-        <v>-0.03255004289409816</v>
+        <v>0.05330011645897626</v>
       </c>
       <c r="D31">
-        <v>-0.01690418442764292</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.006152958062771597</v>
+      </c>
+      <c r="E31">
+        <v>-0.05016709278247459</v>
+      </c>
+      <c r="F31">
+        <v>-0.08149203341388098</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.006753716534830009</v>
+        <v>0.004661463712727463</v>
       </c>
       <c r="C32">
-        <v>-0.04652096153251003</v>
+        <v>0.03384271366033652</v>
       </c>
       <c r="D32">
-        <v>0.01464435833626688</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0504960353361491</v>
+      </c>
+      <c r="E32">
+        <v>-0.02375243745273052</v>
+      </c>
+      <c r="F32">
+        <v>-0.07134230079451022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.0252154885605086</v>
+        <v>0.02411494914035286</v>
       </c>
       <c r="C33">
-        <v>-0.06017988545310295</v>
+        <v>0.05436808140161106</v>
       </c>
       <c r="D33">
-        <v>0.02203297494421879</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08353845724893932</v>
+      </c>
+      <c r="E33">
+        <v>-0.05094207311683704</v>
+      </c>
+      <c r="F33">
+        <v>-0.1276952333899701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.04945952886932826</v>
+        <v>0.04021764429827541</v>
       </c>
       <c r="C34">
-        <v>-0.05389964122365775</v>
+        <v>0.06436823315000358</v>
       </c>
       <c r="D34">
-        <v>-0.008891008151601055</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03428157574028841</v>
+      </c>
+      <c r="E34">
+        <v>0.005947164191353011</v>
+      </c>
+      <c r="F34">
+        <v>-0.07380162988687777</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.008155981559605185</v>
+        <v>0.01379618404231981</v>
       </c>
       <c r="C36">
-        <v>-0.01390763380925414</v>
+        <v>0.01197066137869526</v>
       </c>
       <c r="D36">
-        <v>6.775755002331572e-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02967123138895072</v>
+      </c>
+      <c r="E36">
+        <v>-0.03646402994182377</v>
+      </c>
+      <c r="F36">
+        <v>-0.08217540094593856</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.03117887287483246</v>
+        <v>0.02488892557027083</v>
       </c>
       <c r="C38">
-        <v>-0.02904340403683519</v>
+        <v>0.02565082342678408</v>
       </c>
       <c r="D38">
-        <v>0.0003134274904882404</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02808400264134665</v>
+      </c>
+      <c r="E38">
+        <v>-0.03532241497777337</v>
+      </c>
+      <c r="F38">
+        <v>-0.06547468742495369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04135256580059255</v>
+        <v>0.03808277482256978</v>
       </c>
       <c r="C39">
-        <v>-0.06938175317731264</v>
+        <v>0.06876865237984821</v>
       </c>
       <c r="D39">
-        <v>0.01931608645131646</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05304806462670095</v>
+      </c>
+      <c r="E39">
+        <v>-0.01964748206960888</v>
+      </c>
+      <c r="F39">
+        <v>-0.09025794974542106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01846344520556168</v>
+        <v>0.01688331891984416</v>
       </c>
       <c r="C40">
-        <v>-0.02903454390717427</v>
+        <v>0.03721518284352365</v>
       </c>
       <c r="D40">
-        <v>0.03289142224459501</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04232374346829861</v>
+      </c>
+      <c r="E40">
+        <v>-0.07362346172767659</v>
+      </c>
+      <c r="F40">
+        <v>-0.08849134808624275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.009474783728180723</v>
+        <v>0.01842705100742425</v>
       </c>
       <c r="C41">
-        <v>-0.006102140737909058</v>
+        <v>0.005826828495469776</v>
       </c>
       <c r="D41">
-        <v>-0.001770079219139129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01903097214971667</v>
+      </c>
+      <c r="E41">
+        <v>-0.03913181827479282</v>
+      </c>
+      <c r="F41">
+        <v>-0.07121216847082598</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>0.002061062763612318</v>
+        <v>0.001311936689863222</v>
       </c>
       <c r="C42">
-        <v>-0.005830188145394399</v>
+        <v>0.003128985149870623</v>
       </c>
       <c r="D42">
-        <v>0.007730103082813574</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.0002492292208821914</v>
+      </c>
+      <c r="E42">
+        <v>-0.007440230375685294</v>
+      </c>
+      <c r="F42">
+        <v>0.006135244872877629</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03111371683149015</v>
+        <v>0.03008677908762668</v>
       </c>
       <c r="C43">
-        <v>-0.02118260534275749</v>
+        <v>0.02084085580104938</v>
       </c>
       <c r="D43">
-        <v>0.004568840260370913</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04276469474599531</v>
+      </c>
+      <c r="E43">
+        <v>-0.04457123380024239</v>
+      </c>
+      <c r="F43">
+        <v>-0.08356874884508234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.01667275043973672</v>
+        <v>0.01450582127096707</v>
       </c>
       <c r="C44">
-        <v>-0.05859929833812069</v>
+        <v>0.05212846583850395</v>
       </c>
       <c r="D44">
-        <v>0.01454805895342349</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04171540999980604</v>
+      </c>
+      <c r="E44">
+        <v>-0.0581111574773171</v>
+      </c>
+      <c r="F44">
+        <v>-0.08893701828080862</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.0004411942547037422</v>
+        <v>0.007422437644119358</v>
       </c>
       <c r="C46">
-        <v>-0.02364722469040819</v>
+        <v>0.02519965761777023</v>
       </c>
       <c r="D46">
-        <v>-0.01974530117859455</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01473613097651758</v>
+      </c>
+      <c r="E46">
+        <v>-0.0363386705259412</v>
+      </c>
+      <c r="F46">
+        <v>-0.1029800539313005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.07949858719913173</v>
+        <v>0.08601063685089673</v>
       </c>
       <c r="C47">
-        <v>-0.07029200154815894</v>
+        <v>0.07996703510403501</v>
       </c>
       <c r="D47">
-        <v>-0.006287442352172751</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01545783805951906</v>
+      </c>
+      <c r="E47">
+        <v>-0.05578689825584239</v>
+      </c>
+      <c r="F47">
+        <v>-0.07922526683704094</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01695761166042626</v>
+        <v>0.01600382616486074</v>
       </c>
       <c r="C48">
-        <v>-0.01265755130679082</v>
+        <v>0.01736284835887413</v>
       </c>
       <c r="D48">
-        <v>-0.004674571564140674</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01987588066286967</v>
+      </c>
+      <c r="E48">
+        <v>-0.04722362349796044</v>
+      </c>
+      <c r="F48">
+        <v>-0.09571934713884579</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.08703210846795424</v>
+        <v>0.07245635600973106</v>
       </c>
       <c r="C50">
-        <v>-0.06694603691785826</v>
+        <v>0.07013839100638786</v>
       </c>
       <c r="D50">
-        <v>-0.01717127840107489</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.003198474623017991</v>
+      </c>
+      <c r="E50">
+        <v>-0.05266592336213872</v>
+      </c>
+      <c r="F50">
+        <v>-0.06787514130761564</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.00912701589725059</v>
+        <v>0.01020738329909552</v>
       </c>
       <c r="C51">
-        <v>-0.04657972072714685</v>
+        <v>0.03360151781744125</v>
       </c>
       <c r="D51">
-        <v>0.0004750109850553459</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04943249324930347</v>
+      </c>
+      <c r="E51">
+        <v>-0.02121776762636577</v>
+      </c>
+      <c r="F51">
+        <v>-0.08479699451817858</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.08533563934744783</v>
+        <v>0.09172508164142584</v>
       </c>
       <c r="C53">
-        <v>-0.07266176373956307</v>
+        <v>0.08865853242142174</v>
       </c>
       <c r="D53">
-        <v>-0.02200710231191053</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0377661472925605</v>
+      </c>
+      <c r="E53">
+        <v>-0.05448639703888623</v>
+      </c>
+      <c r="F53">
+        <v>-0.08788114042095603</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02940903678727334</v>
+        <v>0.02807494340136795</v>
       </c>
       <c r="C54">
-        <v>-0.02043714303991584</v>
+        <v>0.02712766699092963</v>
       </c>
       <c r="D54">
-        <v>-0.001485294463308702</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03283091332570377</v>
+      </c>
+      <c r="E54">
+        <v>-0.04131112098213764</v>
+      </c>
+      <c r="F54">
+        <v>-0.09437873694178901</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.0727747568191812</v>
+        <v>0.08254147170534856</v>
       </c>
       <c r="C55">
-        <v>-0.06535386096323063</v>
+        <v>0.07236284311076409</v>
       </c>
       <c r="D55">
-        <v>-0.02760784657677686</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04577199163333587</v>
+      </c>
+      <c r="E55">
+        <v>-0.04377949553736724</v>
+      </c>
+      <c r="F55">
+        <v>-0.06376319453421198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1534318372147081</v>
+        <v>0.1441823101710028</v>
       </c>
       <c r="C56">
-        <v>-0.08822675408512101</v>
+        <v>0.1064828682114318</v>
       </c>
       <c r="D56">
-        <v>-0.02578062570133147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04910660750701118</v>
+      </c>
+      <c r="E56">
+        <v>-0.04865972457725866</v>
+      </c>
+      <c r="F56">
+        <v>-0.05117213122658962</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>0.0004194392621903124</v>
+        <v>-8.559600279074771e-06</v>
       </c>
       <c r="C57">
-        <v>-0.003926510356644476</v>
+        <v>0.002079861321065357</v>
       </c>
       <c r="D57">
-        <v>0.01822394261760146</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01655725892892622</v>
+      </c>
+      <c r="E57">
+        <v>-0.007119034685271867</v>
+      </c>
+      <c r="F57">
+        <v>-0.01059543412965513</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.05880737017657352</v>
+        <v>0.0308348916382769</v>
       </c>
       <c r="C58">
-        <v>-0.02750296775209743</v>
+        <v>0.038731963462251</v>
       </c>
       <c r="D58">
-        <v>0.9547966233281708</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4965223060156607</v>
+      </c>
+      <c r="E58">
+        <v>-0.6710826231608079</v>
+      </c>
+      <c r="F58">
+        <v>0.470157276103063</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1295260301505732</v>
+        <v>0.1487997700206918</v>
       </c>
       <c r="C59">
-        <v>0.2059862074523047</v>
+        <v>-0.1855127113545184</v>
       </c>
       <c r="D59">
-        <v>0.02338550833458785</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03077643982926468</v>
+      </c>
+      <c r="E59">
+        <v>-0.02564635572762503</v>
+      </c>
+      <c r="F59">
+        <v>-0.0206124495876551</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.3109804997656818</v>
+        <v>0.2796571434929763</v>
       </c>
       <c r="C60">
-        <v>-0.08731958994858742</v>
+        <v>0.09962487549154597</v>
       </c>
       <c r="D60">
-        <v>0.001506876412755253</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2015906897055982</v>
+      </c>
+      <c r="E60">
+        <v>0.2850070334234812</v>
+      </c>
+      <c r="F60">
+        <v>0.1182123738316697</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.0382909845179743</v>
+        <v>0.03995421288829085</v>
       </c>
       <c r="C61">
-        <v>-0.06253913904305429</v>
+        <v>0.06172417243592607</v>
       </c>
       <c r="D61">
-        <v>0.008495629548063139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04747173155342543</v>
+      </c>
+      <c r="E61">
+        <v>-0.02338613656997319</v>
+      </c>
+      <c r="F61">
+        <v>-0.08146647795560698</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01264638947043296</v>
+        <v>0.01485940680521187</v>
       </c>
       <c r="C63">
-        <v>-0.03679253495675586</v>
+        <v>0.03156319984403211</v>
       </c>
       <c r="D63">
-        <v>-0.004049080445187674</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02414608291947782</v>
+      </c>
+      <c r="E63">
+        <v>-0.03885280097119768</v>
+      </c>
+      <c r="F63">
+        <v>-0.07516020512802812</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.05295968541955599</v>
+        <v>0.05629194051578809</v>
       </c>
       <c r="C64">
-        <v>-0.0314929519141113</v>
+        <v>0.05417625247093696</v>
       </c>
       <c r="D64">
-        <v>-0.01099874773708919</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.008468301645396916</v>
+      </c>
+      <c r="E64">
+        <v>-0.02396022354255178</v>
+      </c>
+      <c r="F64">
+        <v>-0.09092011646166034</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.0895575195048503</v>
+        <v>0.06640327679871216</v>
       </c>
       <c r="C65">
-        <v>-0.04262584238042792</v>
+        <v>0.03966479705164754</v>
       </c>
       <c r="D65">
-        <v>0.04038981957837811</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08661849882426029</v>
+      </c>
+      <c r="E65">
+        <v>-0.03189357656342687</v>
+      </c>
+      <c r="F65">
+        <v>-0.02444177187250185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.06302818392077103</v>
+        <v>0.05032831774034863</v>
       </c>
       <c r="C66">
-        <v>-0.1033119712277359</v>
+        <v>0.09180917430101225</v>
       </c>
       <c r="D66">
-        <v>0.02868556953799046</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.0797722354160062</v>
+      </c>
+      <c r="E66">
+        <v>-0.02114257810977535</v>
+      </c>
+      <c r="F66">
+        <v>-0.09176958977245017</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05511218000234011</v>
+        <v>0.04770000815152973</v>
       </c>
       <c r="C67">
-        <v>-0.03271703061836068</v>
+        <v>0.03164074940665554</v>
       </c>
       <c r="D67">
-        <v>-0.005618216147525241</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01465565818080736</v>
+      </c>
+      <c r="E67">
+        <v>-0.02016063367466402</v>
+      </c>
+      <c r="F67">
+        <v>-0.05212368340274466</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.107644299981933</v>
+        <v>0.1538139590303412</v>
       </c>
       <c r="C68">
-        <v>0.2903890822796956</v>
+        <v>-0.2516690303217464</v>
       </c>
       <c r="D68">
-        <v>0.004463698152769371</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01757969008930267</v>
+      </c>
+      <c r="E68">
+        <v>-0.04208199078625706</v>
+      </c>
+      <c r="F68">
+        <v>-0.01911316008248992</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.08784089911546035</v>
+        <v>0.08748034361989582</v>
       </c>
       <c r="C69">
-        <v>-0.06440372791902628</v>
+        <v>0.08597954074739954</v>
       </c>
       <c r="D69">
-        <v>-0.03193789613439843</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008884086208374251</v>
+      </c>
+      <c r="E69">
+        <v>-0.03272037620811525</v>
+      </c>
+      <c r="F69">
+        <v>-0.0976968649317481</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1116562450940199</v>
+        <v>0.1459255771754446</v>
       </c>
       <c r="C71">
-        <v>0.251661703048465</v>
+        <v>-0.2304063405920379</v>
       </c>
       <c r="D71">
-        <v>0.02527555197473996</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01542506020715531</v>
+      </c>
+      <c r="E71">
+        <v>-0.06068444250119422</v>
+      </c>
+      <c r="F71">
+        <v>-0.05501562200721128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.0833186250492443</v>
+        <v>0.09558246586957911</v>
       </c>
       <c r="C72">
-        <v>-0.04896921090072715</v>
+        <v>0.05830338060856275</v>
       </c>
       <c r="D72">
-        <v>-0.01715838730442448</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02011839670349981</v>
+      </c>
+      <c r="E72">
+        <v>-0.01061065138438933</v>
+      </c>
+      <c r="F72">
+        <v>-0.08128195529728402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.4433137403422558</v>
+        <v>0.3459247759177619</v>
       </c>
       <c r="C73">
-        <v>-0.05277633320669346</v>
+        <v>0.08055333175968564</v>
       </c>
       <c r="D73">
-        <v>0.05649184586758026</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4229616885759589</v>
+      </c>
+      <c r="E73">
+        <v>0.4943593881160198</v>
+      </c>
+      <c r="F73">
+        <v>0.2844003097096982</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1167902057597213</v>
+        <v>0.1106334667448852</v>
       </c>
       <c r="C74">
-        <v>-0.1101284049680196</v>
+        <v>0.1007911325127836</v>
       </c>
       <c r="D74">
-        <v>-0.004068874235115875</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02817591719278415</v>
+      </c>
+      <c r="E74">
+        <v>-0.06417789050050662</v>
+      </c>
+      <c r="F74">
+        <v>-0.05745768530200727</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.2584327590834636</v>
+        <v>0.2561991390567722</v>
       </c>
       <c r="C75">
-        <v>-0.1104087022919964</v>
+        <v>0.1383064013634223</v>
       </c>
       <c r="D75">
-        <v>-0.03588937103985244</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1263299313833056</v>
+      </c>
+      <c r="E75">
+        <v>-0.07783752991648675</v>
+      </c>
+      <c r="F75">
+        <v>-0.02305076297534489</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.116323305442153</v>
+        <v>0.1277974636090965</v>
       </c>
       <c r="C76">
-        <v>-0.09911282137980171</v>
+        <v>0.1052141206275587</v>
       </c>
       <c r="D76">
-        <v>-0.02232670452699312</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05789264062716364</v>
+      </c>
+      <c r="E76">
+        <v>-0.06935493526667068</v>
+      </c>
+      <c r="F76">
+        <v>-0.06758752410155464</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07672024705151483</v>
+        <v>0.06101846001488823</v>
       </c>
       <c r="C77">
-        <v>-0.05765426671000714</v>
+        <v>0.06694768992594757</v>
       </c>
       <c r="D77">
-        <v>0.04462668307243253</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06501567360251713</v>
+      </c>
+      <c r="E77">
+        <v>-0.06609003414904861</v>
+      </c>
+      <c r="F77">
+        <v>-0.1123926233352311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04553981452200447</v>
+        <v>0.04350168624061505</v>
       </c>
       <c r="C78">
-        <v>-0.04145308128382298</v>
+        <v>0.05408142152056548</v>
       </c>
       <c r="D78">
-        <v>0.01306389521927689</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07340633450070544</v>
+      </c>
+      <c r="E78">
+        <v>-0.02317509294725355</v>
+      </c>
+      <c r="F78">
+        <v>-0.103969165975737</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02229543849780139</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03803351714188127</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05838724381547162</v>
+      </c>
+      <c r="E79">
+        <v>-0.04965031420129627</v>
+      </c>
+      <c r="F79">
+        <v>-0.03703738677351742</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.04660174498580975</v>
+        <v>0.03374772002802471</v>
       </c>
       <c r="C80">
-        <v>-0.05263791241415939</v>
+        <v>0.05361477328432143</v>
       </c>
       <c r="D80">
-        <v>0.0280672700681263</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04805609249048137</v>
+      </c>
+      <c r="E80">
+        <v>-0.008492340758847715</v>
+      </c>
+      <c r="F80">
+        <v>-0.03213719814729875</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1441719710942367</v>
+        <v>0.1394500164176224</v>
       </c>
       <c r="C81">
-        <v>-0.07522465050194473</v>
+        <v>0.09792403009227492</v>
       </c>
       <c r="D81">
-        <v>-0.01935081167168105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09442639555720993</v>
+      </c>
+      <c r="E81">
+        <v>-0.08226488067077917</v>
+      </c>
+      <c r="F81">
+        <v>-0.02359585627170208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1253579862616329</v>
+        <v>0.1936875856637263</v>
       </c>
       <c r="C82">
-        <v>-0.05762662999841313</v>
+        <v>0.1402838167458444</v>
       </c>
       <c r="D82">
-        <v>-0.1245358613772876</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2275320300274737</v>
+      </c>
+      <c r="E82">
+        <v>-0.01556636086485416</v>
+      </c>
+      <c r="F82">
+        <v>-0.07894812459343244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.03081842349242382</v>
+        <v>0.02684348999962015</v>
       </c>
       <c r="C83">
-        <v>-0.01896755673971965</v>
+        <v>0.03818139489125388</v>
       </c>
       <c r="D83">
-        <v>0.009905095149773202</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0351960948034577</v>
+      </c>
+      <c r="E83">
+        <v>-0.008039321076114448</v>
+      </c>
+      <c r="F83">
+        <v>-0.04962319754779461</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.2319343540984375</v>
+        <v>0.2052609416944871</v>
       </c>
       <c r="C85">
-        <v>-0.1067524296096439</v>
+        <v>0.1254552938523662</v>
       </c>
       <c r="D85">
-        <v>-0.08877889236523817</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1065134802529482</v>
+      </c>
+      <c r="E85">
+        <v>-0.006896419100380449</v>
+      </c>
+      <c r="F85">
+        <v>0.01694021000322631</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.002454546801395791</v>
+        <v>0.01187526119031713</v>
       </c>
       <c r="C86">
-        <v>-0.02313136351295018</v>
+        <v>0.030547562495959</v>
       </c>
       <c r="D86">
-        <v>0.01616745917932775</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07315261782339982</v>
+      </c>
+      <c r="E86">
+        <v>-0.04446900598761015</v>
+      </c>
+      <c r="F86">
+        <v>-0.1389485857012134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.01798560598510254</v>
+        <v>0.02024696272975715</v>
       </c>
       <c r="C87">
-        <v>-0.01801617187051079</v>
+        <v>0.0208580036185844</v>
       </c>
       <c r="D87">
-        <v>0.08786204423545441</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09348048472243821</v>
+      </c>
+      <c r="E87">
+        <v>-0.08552125223434869</v>
+      </c>
+      <c r="F87">
+        <v>-0.09290457036147282</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.1059224584929322</v>
+        <v>0.09061827241072519</v>
       </c>
       <c r="C88">
-        <v>-0.06813436642434505</v>
+        <v>0.06366589807598221</v>
       </c>
       <c r="D88">
-        <v>-0.01474215591006194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01326694521954752</v>
+      </c>
+      <c r="E88">
+        <v>-0.03310408296480859</v>
+      </c>
+      <c r="F88">
+        <v>-0.06853700088318736</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1806212884321347</v>
+        <v>0.2270064722301342</v>
       </c>
       <c r="C89">
-        <v>0.381739450706879</v>
+        <v>-0.3807930371479124</v>
       </c>
       <c r="D89">
-        <v>-0.02839855002036165</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01334084908029037</v>
+      </c>
+      <c r="E89">
+        <v>-0.03877331760897541</v>
+      </c>
+      <c r="F89">
+        <v>-0.1011995271496118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1705415881969688</v>
+        <v>0.205429496911876</v>
       </c>
       <c r="C90">
-        <v>0.3485163299564415</v>
+        <v>-0.3155755763431725</v>
       </c>
       <c r="D90">
-        <v>-0.003074620575189753</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01112342073826719</v>
+      </c>
+      <c r="E90">
+        <v>-0.06588621063237472</v>
+      </c>
+      <c r="F90">
+        <v>-0.04960055539654944</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.2030216963969178</v>
+        <v>0.1898430315247977</v>
       </c>
       <c r="C91">
-        <v>-0.1054308353978995</v>
+        <v>0.1391021024109644</v>
       </c>
       <c r="D91">
-        <v>-0.03862743855515645</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1020851033209638</v>
+      </c>
+      <c r="E91">
+        <v>-0.07332721751450798</v>
+      </c>
+      <c r="F91">
+        <v>-0.04550691550923378</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.161835205847682</v>
+        <v>0.1849639293222283</v>
       </c>
       <c r="C92">
-        <v>0.290321722454668</v>
+        <v>-0.2771366512526078</v>
       </c>
       <c r="D92">
-        <v>-0.0116910791292349</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.004541197801759665</v>
+      </c>
+      <c r="E92">
+        <v>-0.06945705720921257</v>
+      </c>
+      <c r="F92">
+        <v>-0.06679576695874093</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1948644525288701</v>
+        <v>0.2289342143222941</v>
       </c>
       <c r="C93">
-        <v>0.3471865257132288</v>
+        <v>-0.3191453185788917</v>
       </c>
       <c r="D93">
-        <v>0.00914764198906807</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.001853638485618621</v>
+      </c>
+      <c r="E93">
+        <v>-0.05072257715828389</v>
+      </c>
+      <c r="F93">
+        <v>-0.04365357982192667</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.3181847926897591</v>
+        <v>0.339241343037362</v>
       </c>
       <c r="C94">
-        <v>-0.165217511269776</v>
+        <v>0.1927069452723851</v>
       </c>
       <c r="D94">
-        <v>-0.1201256916530837</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4727201836235599</v>
+      </c>
+      <c r="E94">
+        <v>-0.1489327022850481</v>
+      </c>
+      <c r="F94">
+        <v>0.4469791487046974</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.09137346079363691</v>
+        <v>0.08202755013262943</v>
       </c>
       <c r="C95">
-        <v>-0.05847734305188692</v>
+        <v>0.07100066784305031</v>
       </c>
       <c r="D95">
-        <v>0.04419389302387677</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1550475391209751</v>
+      </c>
+      <c r="E95">
+        <v>0.1334861421609796</v>
+      </c>
+      <c r="F95">
+        <v>-0.1738820559903231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1971704873837318</v>
+        <v>0.1888988172737604</v>
       </c>
       <c r="C98">
-        <v>-0.01289352147214224</v>
+        <v>0.04196023862878982</v>
       </c>
       <c r="D98">
-        <v>0.03802740105587307</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1727759173442734</v>
+      </c>
+      <c r="E98">
+        <v>0.1578606508288122</v>
+      </c>
+      <c r="F98">
+        <v>0.0342561276427087</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.008403153338489405</v>
+        <v>0.006195881166059704</v>
       </c>
       <c r="C101">
-        <v>-0.02663066892269918</v>
+        <v>0.02588246469488732</v>
       </c>
       <c r="D101">
-        <v>-0.01719539960516253</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02345964850164348</v>
+      </c>
+      <c r="E101">
+        <v>-0.03115649464168242</v>
+      </c>
+      <c r="F101">
+        <v>-0.08883093905906053</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>0.1218737195940982</v>
+        <v>0.1226142551453126</v>
       </c>
       <c r="C102">
-        <v>-0.0707644178647753</v>
+        <v>0.1008619123054119</v>
       </c>
       <c r="D102">
-        <v>-0.03702442932701346</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05127691576581906</v>
+      </c>
+      <c r="E102">
+        <v>0.007446387946789625</v>
+      </c>
+      <c r="F102">
+        <v>-0.04081912704075933</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
